--- a/data/trans_dic/P37_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que duerme las horas de sueño recomendadas para su edad</t>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,03%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,82%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>70,81%</t>
+          <t>71,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>70,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>71,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>70,83%</t>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64,72%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68,5%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>70,9%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,89; 77,54</t>
+          <t>44,26; 81,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,95; 73,07</t>
+          <t>43,32; 77,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,27; 82,67</t>
+          <t>51,94; 85,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>64,89; 84,85</t>
+          <t>51,68; 85,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,07; 82,8</t>
+          <t>54,53; 84,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,98; 81,53</t>
+          <t>52,19; 81,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,07; 79,18</t>
+          <t>48,83; 78,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58,5; 74,86</t>
+          <t>55,02; 83,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,43; 78,69</t>
+          <t>55,24; 78,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>51,83; 75,07</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>55,64; 79,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59,76; 80,23</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>65,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>53,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,98%</t>
+          <t>70,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,13%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>61,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>57,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>68,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>55,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57,43%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46,36%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,29; 85,78</t>
+          <t>37,61; 82,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,37; 68,65</t>
+          <t>23,29; 66,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,99; 74,9</t>
+          <t>25,2; 74,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,71; 80,76</t>
+          <t>14,82; 63,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,35; 74,42</t>
+          <t>57,06; 81,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,01; 72,47</t>
+          <t>51,73; 76,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,1; 80,5</t>
+          <t>48,76; 74,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,8; 68,16</t>
+          <t>42,22; 71,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,3; 70,25</t>
+          <t>51,26; 79,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38,86; 67,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41,99; 69,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28,38; 59,14</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>65,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>63,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>60,16%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63,34%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63,83%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>63,27%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>59,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>60,75%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>66,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>66,46%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>66,4%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,62; 78,57</t>
+          <t>51,91; 76,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,79; 82,46</t>
+          <t>55,99; 79,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,32; 81,39</t>
+          <t>51,27; 74,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,12; 72,56</t>
+          <t>49,27; 74,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,04; 67,29</t>
+          <t>56,8; 75,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,03; 68,77</t>
+          <t>50,05; 68,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,55; 73,19</t>
+          <t>52,64; 71,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,6; 71,95</t>
+          <t>47,56; 67,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>59,77; 72,79</t>
+          <t>58,98; 72,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56,07; 70,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>55,69; 70,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>52,25; 68,4</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>58,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>55,41%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>57,55%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>57,93%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>64,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,81%</t>
+          <t>60,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>58,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>61,49%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,07; 67,17</t>
+          <t>48,01; 69,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,66; 66,19</t>
+          <t>44,75; 66,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 65,76</t>
+          <t>47,67; 68,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,28; 69,73</t>
+          <t>44,51; 66,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 65,8</t>
+          <t>55,57; 72,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,96; 64,66</t>
+          <t>50,65; 69,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,59; 66,82</t>
+          <t>49,34; 68,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,5; 64,24</t>
+          <t>43,0; 62,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,93; 63,21</t>
+          <t>53,82; 68,62</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50,89; 65,89</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>51,29; 65,47</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>47,65; 62,36</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>67,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>63,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>65,03%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>63,62%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>65,79%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64,33%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>58,51%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,88; 71,1</t>
+          <t>45,51; 73,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,73; 76,08</t>
+          <t>55,74; 80,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,5; 73,13</t>
+          <t>53,83; 77,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>59,21; 76,0</t>
+          <t>51,34; 75,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,22; 71,74</t>
+          <t>54,68; 79,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,31; 66,67</t>
+          <t>49,44; 75,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,48; 70,9</t>
+          <t>47,41; 74,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>58,89; 71,65</t>
+          <t>37,83; 67,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,03; 67,01</t>
+          <t>53,15; 72,13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56,33; 74,28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54,74; 72,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>49,13; 67,65</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,75%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>55,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>53,51%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,25%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>54,03%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>52,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>61,58%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61,51%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53,24%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53,51; 75,1</t>
+          <t>57,98; 85,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,92; 70,72</t>
+          <t>50,28; 79,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,44; 67,31</t>
+          <t>40,14; 70,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,08; 52,68</t>
+          <t>38,71; 69,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,38; 64,34</t>
+          <t>38,27; 66,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,07; 78,05</t>
+          <t>43,41; 72,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,03; 59,66</t>
+          <t>37,2; 69,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,56; 63,82</t>
+          <t>32,48; 69,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,67; 71,9</t>
+          <t>50,9; 71,79</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50,82; 72,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>43,89; 66,69</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38,32; 64,29</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>62,89%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>56,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>65,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>62,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>64,88%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>61,06%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>56,58%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>60,67; 70,38</t>
+          <t>56,27; 69,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>57,5; 67,45</t>
+          <t>53,48; 66,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,47; 69,41</t>
+          <t>51,98; 67,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>60,26; 67,69</t>
+          <t>46,12; 62,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,51</t>
+          <t>60,56; 70,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,13; 65,78</t>
+          <t>57,18; 66,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,77; 67,76</t>
+          <t>56,23; 66,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>59,18; 65,03</t>
+          <t>50,56; 62,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,61; 65,94</t>
+          <t>60,68; 68,69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>56,8; 65,22</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>55,92; 64,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>51,16; 61,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,03%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58247</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>61806</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>81467</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>102729</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>82866</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74919</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72354</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>103793</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>141113</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>136725</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>153821</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>206522</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39622; 72867</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44513; 79271</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>58784; 97253</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75355; 124678</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>63601; 98404</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>56638; 88253</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54379; 87125</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>80058; 121529</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>113881; 162288</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>109488; 158595</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>124940; 177770</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>174077; 233697</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>109939</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68029</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>83030</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87059</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>117216</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>79555</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>78104</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93778</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>227154</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>147583</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>161134</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>180837</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>63467; 139901</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33391; 95567</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38884; 114937</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33753; 144225</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94209; 135252</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64444; 95287</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61595; 94266</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>68557; 115311</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>171128; 264894</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>104137; 182098</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>117823; 195090</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>110684; 230667</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>104445</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>93454</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>86942</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>112878</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>177185</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>125959</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>126972</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>134014</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>281630</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>219413</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>213914</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>246892</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>82619; 121623</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>75223; 107269</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>70568; 102628</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88807; 133997</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>149998; 200259</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>104791; 144121</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>105533; 143637</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>111857; 158527</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>249628; 308786</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>192740; 242096</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>188281; 237866</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>217094; 284168</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>109331</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>88234</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>89907</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111962</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>138277</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>109096</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>100661</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>112208</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>247608</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>197329</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>190569</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>224170</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>89636; 129670</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>71259; 105496</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>74459; 106781</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>89646; 134696</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>120049; 157488</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>91359; 125711</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>84247; 116290</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>89620; 131248</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>216746; 276349</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>172812; 223752</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>167700; 214049</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>195276; 255580</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>94910</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>86118</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>80979</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>98320</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>79179</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>59886</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57881</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>72366</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>174089</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>146004</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>138860</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>170687</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>71648; 115166</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71413; 102527</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>66315; 95337</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>79393; 116277</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63538; 92610</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>46387; 71203</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>43938; 69050</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>51854; 92412</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>145435; 197353</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>125007; 164850</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>118167; 157405</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>143309; 197327</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>78958</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>57646</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>50373</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>74619</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>69218</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>57316</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>56418</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>109212</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>148175</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>114961</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>106791</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>183831</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>63382; 93155</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>43915; 69682</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>36183; 63416</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>53348; 95163</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>50255; 87590</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>43218; 72056</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38844; 72670</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>67401; 144768</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>122476; 172735</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>94988; 134697</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>85388; 129739</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>132316; 222003</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>555830</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>455286</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>472698</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>587569</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>663940</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>506730</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>492390</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>625370</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1219770</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>962015</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>965089</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1212938</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>490010; 606911</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>403841; 503206</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>402645; 520063</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>483141; 659887</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>611273; 710299</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>466735; 545034</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>453169; 532924</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>554146; 683850</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1140894; 1291516</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>892605; 1024904</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>883831; 1025641</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1096662; 1309869</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>